--- a/scheme/Sitram2/issues_metadados_sitram2.xlsx
+++ b/scheme/Sitram2/issues_metadados_sitram2.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64901,7 +64901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64912,2974 +64912,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CARGA_CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tp_medida</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CFP_VERSAO_CONFIGURACAO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DESC_PRODUTO_COFIP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1038</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TP_SERV</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DEPOSITO_JUDICIAL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>VALOR</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MODALIDADE_BC_ICMS_ST</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ORGAO_ATIVO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CNPJ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PENDENCIA_INFORMACAO_TRANSPORT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MENSAGEM</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>COD_CPF_RESP_ENTREGA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NOM_RESP_ENTREGA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>COD_CPF_RESP_DEVOL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NOM_RESP_DEVOL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>COD_VEICULO</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NUM_LACRE_MALOTE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ACAO_FISCAL_PEND</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AJUSTE_UF2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SEQ_AJUSTE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AJUSTE_UF2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>COD_UF</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SEQ_AJUSTE</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SEQ_VERSAO_CONFIGURACAO</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>VLR_AJUSTE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TIP_CLASSIF_CONTRIBUINTE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>TIP_INCIDENCIA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TIP_CLASSIF_PRODUTO</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>TIP_SITUACAO_ESPECIAL</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>DSC_DESCRICAO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>AJUSTE2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>DSC_CRITERIO</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CARGA_CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SEQ_CARGA_CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>VLR_BC</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>VLR_ICMS_FRETE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SEQ_CREDENCIAM</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>COD_CNPJ_TRANSPORTADORA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NOM_TRANSPORTADORA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SEQ_CONTRIBUINTE</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>COD_MUN_INI_PREST</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>DSC_MUN_INI_PREST</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>COD_MUN_FIM_PREST</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>DSC_MUN_FIM_PREST</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TIP_CTE</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DOC_CREDITO</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>COD_AUTO_INFRACAO</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>DOC_CREDITO_LANC</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_MULTA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>DOC_CREDITO_LANC</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_JUROS</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SEQ_FRETE_PERCURSO_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SEQ_FRETE_PERCURSO</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NUM_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>SEQ_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>SEQ_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SEQ_LANCAMENTO_ORIGEM</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>COD_TIPO_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>COD_RECEITA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SEQ_CONTRIBUINTE_CRED</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SEQ_FRETE</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SEQ_TIPO_REGIME</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>DAT_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>VLR_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>VLR_PAGO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>DAT_VENCIMENTO</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>STA_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TIP_CREDENCIAMENTO</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>COD_CONFIG_ORGAO</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>LANCAMENTO_BKP</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SEQ_CONHECIM_TRANSP</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>MANIFESTO_CARGA</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>COD_UNIDADE</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>DSC_JUSTIFICATIVA_ALTERACAO</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>DSC_JUSTIFICATIVA_RETORNO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>VLR_ICMS_SEGURO</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>VLR_FRETE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ECOMMERCE</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>SEQ_ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SEQ_PRODUTO</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>STA_HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>STA_OBRA</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>STA_MARGEM_LUCRO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>VLR_TOTAL</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>STA_COBRANCA_FORCADA</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>VLR_FECOP_PADRAO</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>VLR_REDUCAO_BC_PERC</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>VLR_BC_ICMS_ST</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>VLR_ICMS_ST</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MODALIDADE_BC_ICMS_ST</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>TIP_OP_VEICULO</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>COD_UF_SUBSTITUICAO_VEICULO</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>VLR_ALIQUOTA_IPI</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>ORGAO_ATIVO</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>SEQ_ORGAO_ATIVO</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>ORGAO_ATIVO</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>CNPJ</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PROCESSO</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DSC_ERRO</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>PROCESSO_ITEM</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DSC_ERRO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PROC_RESULT_NF_DAE</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SEQ_DAE_EMITIDO</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>TRANSF_RESPONSABILIDADE</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>DAT_TRANSF_RESPONSABILIDADE</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>VERSAO_CRITERIO</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>DSC_EXPRESSAO</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>VW_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SEQ_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>VW_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>COD_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>VW_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>STA_ACAO_FISCAL</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>VW_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>DSC_STATUS_NF</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>ALIQUOTA_CONFIGURACAO</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>SEQ_ALIQUOTA_CONFIGURACAO</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>ALIQUOTA_CONFIGURACAO_PK</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MQMD11</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>SEQ_NOTA_FISCAL_ITEM</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>SYS_C001506485</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>SEQ_NOTA_FISCAL</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CKT_LANCAMENTO</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>DAE_CALCULADORA</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>SEQ_DAE_EMITIDO</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>AK_DAE_CALCULADORA_UK_DAE_CALC</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>SITRAM2</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>DAE_CALCULADORA</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>NUM_CHAVE</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>AK_DAE_CALCULADORA_UK_DAE_CALC</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -67892,7 +65012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67903,94 +65023,2974 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CARGA_CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tp_medida</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1038</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CFP_VERSAO_CONFIGURACAO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DESC_PRODUTO_COFIP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TP_SERV</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>193</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DEPOSITO_JUDICIAL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MODALIDADE_BC_ICMS_ST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ORGAO_ATIVO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PENDENCIA_INFORMACAO_TRANSPORT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MENSAGEM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>COD_CPF_RESP_ENTREGA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOM_RESP_ENTREGA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>COD_CPF_RESP_DEVOL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NOM_RESP_DEVOL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>COD_VEICULO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NUM_LACRE_MALOTE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ACAO_FISCAL_PEND</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AJUSTE_UF2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SEQ_AJUSTE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AJUSTE_UF2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>COD_UF</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SEQ_AJUSTE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SEQ_VERSAO_CONFIGURACAO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VLR_AJUSTE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TIP_CLASSIF_CONTRIBUINTE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TIP_INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TIP_CLASSIF_PRODUTO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TIP_SITUACAO_ESPECIAL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DSC_DESCRICAO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AJUSTE2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DSC_CRITERIO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CARGA_CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SEQ_CARGA_CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VLR_BC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>VLR_ICMS_FRETE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SEQ_CREDENCIAM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COD_CNPJ_TRANSPORTADORA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NOM_TRANSPORTADORA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SEQ_CONTRIBUINTE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>COD_MUN_INI_PREST</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DSC_MUN_INI_PREST</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>COD_MUN_FIM_PREST</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DSC_MUN_FIM_PREST</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TIP_CTE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DOC_CREDITO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>COD_AUTO_INFRACAO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DOC_CREDITO_LANC</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VLR_DESCONTO_MULTA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DOC_CREDITO_LANC</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>VLR_DESCONTO_JUROS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SEQ_FRETE_PERCURSO_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SEQ_FRETE_PERCURSO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FRETE_PERCURSO_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NUM_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SEQ_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SEQ_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SEQ_LANCAMENTO_ORIGEM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>COD_TIPO_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>COD_RECEITA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SEQ_CONTRIBUINTE_CRED</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SEQ_FRETE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SEQ_TIPO_REGIME</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>DAT_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>VLR_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VLR_PAGO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>DAT_VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>STA_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TIP_CREDENCIAMENTO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>COD_CONFIG_ORGAO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LANCAMENTO_BKP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SEQ_CONHECIM_TRANSP</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MANIFESTO_CARGA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>COD_UNIDADE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>VLR_DESCONTO</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>DSC_JUSTIFICATIVA_ALTERACAO</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>DSC_JUSTIFICATIVA_RETORNO</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VLR_ICMS_SEGURO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VLR_FRETE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ECOMMERCE</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SEQ_ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SEQ_PRODUTO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>STA_HOSPITALAR</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>STA_OBRA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>STA_MARGEM_LUCRO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>VLR_TOTAL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>STA_COBRANCA_FORCADA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VLR_FECOP_PADRAO</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>VLR_REDUCAO_BC_PERC</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VLR_BC_ICMS_ST</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VLR_ICMS_ST</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MODALIDADE_BC_ICMS_ST</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TIP_OP_VEICULO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>COD_UF_SUBSTITUICAO_VEICULO</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>VLR_ALIQUOTA_IPI</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ORGAO_ATIVO</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SEQ_ORGAO_ATIVO</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ORGAO_ATIVO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CNPJ</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PROCESSO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DSC_ERRO</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PROCESSO_ITEM</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DSC_ERRO</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PROC_RESULT_NF_DAE</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SEQ_DAE_EMITIDO</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TRANSF_RESPONSABILIDADE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>DAT_TRANSF_RESPONSABILIDADE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VERSAO_CRITERIO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>DSC_EXPRESSAO</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VW_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SEQ_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>VW_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>COD_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VW_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>STA_ACAO_FISCAL</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VW_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DSC_STATUS_NF</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ALIQUOTA_CONFIGURACAO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SEQ_ALIQUOTA_CONFIGURACAO</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ALIQUOTA_CONFIGURACAO_PK</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MQME14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard primary key prefixes</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SEQ_NOTA_FISCAL_ITEM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SYS_C001506485</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SEQ_NOTA_FISCAL</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>CKT_LANCAMENTO</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DAE_CALCULADORA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SEQ_DAE_EMITIDO</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>AK_DAE_CALCULADORA_UK_DAE_CALC</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SITRAM2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DAE_CALCULADORA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NUM_CHAVE</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>AK_DAE_CALCULADORA_UK_DAE_CALC</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -68003,7 +68003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68031,76 +68031,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD11</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard primary key prefixes</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -68114,7 +68084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68142,29 +68112,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>91.81%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -68176,29 +68146,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -68210,68 +68180,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>91.81%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>97.83%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>99.48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>88.89%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>

--- a/scheme/Sitram2/issues_metadados_sitram2.xlsx
+++ b/scheme/Sitram2/issues_metadados_sitram2.xlsx
@@ -64929,7 +64929,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -64944,7 +64944,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -64959,7 +64959,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -64974,7 +64974,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -64989,7 +64989,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -65065,7 +65065,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -65095,7 +65095,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -65125,7 +65125,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -65155,7 +65155,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -65185,7 +65185,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -65215,7 +65215,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -65245,7 +65245,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -65275,7 +65275,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -65305,7 +65305,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -65335,7 +65335,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -65365,7 +65365,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -65395,7 +65395,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -65425,7 +65425,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -65455,7 +65455,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -65485,7 +65485,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -65515,7 +65515,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -65545,7 +65545,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -65575,7 +65575,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -65605,7 +65605,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -65635,7 +65635,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -65665,7 +65665,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -65695,7 +65695,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -65725,7 +65725,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -65755,7 +65755,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -65785,7 +65785,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -65815,7 +65815,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -65845,7 +65845,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -65875,7 +65875,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -65905,7 +65905,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -65935,7 +65935,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -65965,7 +65965,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -65995,7 +65995,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -66025,7 +66025,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -66055,7 +66055,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -66085,7 +66085,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -66115,7 +66115,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -66145,7 +66145,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -66175,7 +66175,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -66205,7 +66205,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -66235,7 +66235,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -66265,7 +66265,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -66295,7 +66295,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -66325,7 +66325,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -66355,7 +66355,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -66385,7 +66385,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -66415,7 +66415,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -66445,7 +66445,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -66475,7 +66475,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -66505,7 +66505,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -66535,7 +66535,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -66565,7 +66565,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -66595,7 +66595,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -66625,7 +66625,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -66655,7 +66655,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -66685,7 +66685,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -66715,7 +66715,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -66745,7 +66745,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -66775,7 +66775,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -66805,7 +66805,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -66835,7 +66835,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -66865,7 +66865,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -66895,7 +66895,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -66925,7 +66925,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -66955,7 +66955,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -66985,7 +66985,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -67015,7 +67015,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -67045,7 +67045,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -67075,7 +67075,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -67105,7 +67105,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -67135,7 +67135,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -67165,7 +67165,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -67195,7 +67195,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -67225,7 +67225,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -67255,7 +67255,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -67285,7 +67285,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -67315,7 +67315,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -67345,7 +67345,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -67375,7 +67375,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -67405,7 +67405,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -67435,7 +67435,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -67465,7 +67465,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -67495,7 +67495,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -67525,7 +67525,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -67555,7 +67555,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -67585,7 +67585,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -67615,7 +67615,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -67645,7 +67645,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -67675,7 +67675,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -67705,7 +67705,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -67735,7 +67735,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -67765,7 +67765,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -67795,7 +67795,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -67825,7 +67825,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -67859,7 +67859,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -67893,7 +67893,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -67927,7 +67927,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -67961,7 +67961,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -68003,7 +68003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68031,45 +68031,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1038</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>730</v>
       </c>
     </row>
@@ -68084,7 +68069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68112,29 +68097,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91.81%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -68146,29 +68131,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.33%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -68180,49 +68165,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>91.81%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>97.83%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>99.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
